--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37187.62635792961</v>
+        <v>69102.78962268765</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484437</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8525615.235996917</v>
+        <v>8557180.894839223</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>38.93543498755517</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>224.4752566397439</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>148.3241808697528</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>151.1449607493886</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>178.0857308800425</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>331.7220152307466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.4426045720672</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.1779532171066</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645593836</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602629</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.64034175572607</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>53.06991172717026</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>238.3929776382645</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.8981232563563</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>123.7760609888576</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>126.4702673604302</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1853,13 +1853,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>412.2077022164179</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>236.094275132285</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1895,10 +1895,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>193.865943825373</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2084,13 +2084,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426783</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>155.577622560264</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>27.18442331492863</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>24.34318456170514</v>
       </c>
       <c r="H25" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>27.07950026194668</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225717</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946038</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,13 +3433,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.34780583513547</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.55329631630762</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772995</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>186.7535668023734</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>50.38971918733537</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571959</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>85.5532963163073</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1378.118739920744</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439874</v>
+        <v>1344.016671144571</v>
       </c>
       <c r="D2" t="n">
-        <v>790.269974958836</v>
+        <v>1312.14729035942</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>878.372545517715</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>450.5051159269228</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2228.621544034846</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2228.621544034846</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1823.76608944588</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1808.664030065594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1804.418310405652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.4638871896879</v>
+        <v>548.1984550241477</v>
       </c>
       <c r="C4" t="n">
-        <v>685.9021756729128</v>
+        <v>375.6367435073727</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>375.6367435073727</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>225.8143385884305</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.252639110322</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>872.2064493144727</v>
+        <v>1519.995309448879</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2296.122858807332</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2050.243412385787</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1771.810411638892</v>
       </c>
       <c r="V4" t="n">
-        <v>1523.093931261154</v>
+        <v>1484.854903509323</v>
       </c>
       <c r="W4" t="n">
-        <v>1523.093931261154</v>
+        <v>1212.828499095614</v>
       </c>
       <c r="X4" t="n">
-        <v>1277.702176594567</v>
+        <v>967.4367444290267</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.282505908675</v>
+        <v>740.0170737431349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>1785.455953541153</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>369.0164112589282</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1270.644793662241</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1270.644793662241</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715258</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953531</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105257</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105257</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105257</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873485</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798675</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115692</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.307243115692</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>954.4517885267255</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>535.3093251060362</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160295</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447916</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.109125272774</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.161826571869</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925637</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925637</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
         <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172027</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,22 +5045,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5133,7 +5133,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1056.838397217808</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777443</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1721.468441289274</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1476.076686622687</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1248.657015936795</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1462.256484342598</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1028.481739500893</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.158956950349</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.4711828007308</v>
+        <v>998.0484328177142</v>
       </c>
       <c r="C16" t="n">
-        <v>792.9094712839558</v>
+        <v>825.4867213009393</v>
       </c>
       <c r="D16" t="n">
-        <v>627.0314784854785</v>
+        <v>659.6087285024621</v>
       </c>
       <c r="E16" t="n">
-        <v>502.0051542543091</v>
+        <v>489.8507247531993</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2981002160653</v>
+        <v>313.1436707149555</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>313.1436707149555</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285906</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.70947220561</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.289801519718</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.879170851552</v>
+        <v>2472.724095295527</v>
       </c>
       <c r="C17" t="n">
-        <v>2073.736698034976</v>
+        <v>2034.581622478951</v>
       </c>
       <c r="D17" t="n">
-        <v>1637.82691320942</v>
+        <v>1598.671837653395</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.052168367715</v>
+        <v>1164.89709281169</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>737.0296632208981</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>335.631831844162</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397514</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5531,34 +5531,34 @@
         <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112636</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112636</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.462783046462</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457496</v>
+        <v>3726.452252901471</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036807</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y17" t="n">
-        <v>2938.17874133646</v>
+        <v>2899.023665780435</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>965.4711828007307</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>792.9094712839557</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>457.2734747362157</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>280.5664206979719</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>114.9751457237995</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2112.450585778171</v>
+        <v>2189.083139415476</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168569</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351992</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526436</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847314</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
         <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
         <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3598.448757555621</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774513</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353823</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653477</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1003.232425776222</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284816</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902378</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160655</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2505.277383137861</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2226.844382390966</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1939.888874261396</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1667.862469847688</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1422.470715181101</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1195.051044495209</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716168</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731395</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238767</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856329</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G25" t="n">
-        <v>126.8499155856329</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6178,13 +6178,13 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
         <v>1230.992967093271</v>
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.756877347711</v>
+        <v>1068.769857140659</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238835</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254062</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>560.5721490761434</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>383.8650950378996</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>218.2738200637273</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859646</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6646,7 +6646,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
         <v>2454.80183470935</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238765</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856327</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>137.9656946497043</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
         <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7199,25 +7199,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
         <v>780.1951658309358</v>
@@ -7315,7 +7315,7 @@
         <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7327,55 +7327,55 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707805</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354704</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066059</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580943</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500647</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814755</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.996046390395</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
         <v>267.852115244952</v>
@@ -7831,22 +7831,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
         <v>1144.575496066698</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>297.3605050393936</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558195</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>527.9769957459462</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807368</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9179,13 +9179,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>706.631711544173</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,19 +9407,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>527.976995745948</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>268.0111327346215</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>185.1957776566199</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>10.96843159933544</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>44.28436272291248</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.03288520609898</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11.38105307846635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.14457787893093</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.78272691405269</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.146865729424329</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>216.2362286424006</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1599680048245</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.146865729423844</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>727652.248834287</v>
+        <v>737371.5139859744</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>727652.248834287</v>
+        <v>740123.7508919544</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729465.0536161544</v>
+        <v>740123.7508919544</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721654.5774605772</v>
+        <v>721654.5774605771</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>721654.5774605775</v>
+        <v>721654.5774605769</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>721654.5774605775</v>
+        <v>721654.5774605771</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752109.2252771081</v>
+        <v>752109.2252771084</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752109.2252771084</v>
+        <v>752109.2252771081</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752109.2252771081</v>
+        <v>752109.2252771084</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>241266.2939506838</v>
       </c>
       <c r="C2" t="n">
-        <v>241266.2939506839</v>
+        <v>241266.2939506838</v>
       </c>
       <c r="D2" t="n">
         <v>241266.2939506838</v>
@@ -26326,13 +26326,13 @@
         <v>227485.7540872544</v>
       </c>
       <c r="G2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="H2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618085</v>
@@ -26344,7 +26344,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
         <v>237085.9128618085</v>
@@ -26353,7 +26353,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="P2" t="n">
-        <v>237085.9128618084</v>
+        <v>237085.9128618085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520275</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104678</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999511</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483863</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
         <v>65247.19221856656</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
         <v>65247.19221856655</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.19221856658</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
@@ -26448,16 +26448,16 @@
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160178.621092764</v>
+        <v>-201563.4809113119</v>
       </c>
       <c r="C6" t="n">
-        <v>-17987.32043305408</v>
+        <v>-6923.416237654499</v>
       </c>
       <c r="D6" t="n">
-        <v>-24840.37661817472</v>
+        <v>10417.12813625227</v>
       </c>
       <c r="E6" t="n">
-        <v>-135080.0741609872</v>
+        <v>-73092.4141738709</v>
       </c>
       <c r="F6" t="n">
-        <v>88719.21959104031</v>
+        <v>88642.66103624344</v>
       </c>
       <c r="G6" t="n">
-        <v>88719.21959104034</v>
+        <v>88642.66103624339</v>
       </c>
       <c r="H6" t="n">
-        <v>88719.21959104025</v>
+        <v>88642.66103624339</v>
       </c>
       <c r="I6" t="n">
-        <v>73002.26033384382</v>
+        <v>72979.03599446107</v>
       </c>
       <c r="J6" t="n">
-        <v>-19647.48937830699</v>
+        <v>-69264.07785831255</v>
       </c>
       <c r="K6" t="n">
-        <v>91366.97596668321</v>
+        <v>77529.74305945527</v>
       </c>
       <c r="L6" t="n">
-        <v>82419.36487817336</v>
+        <v>91343.75162730055</v>
       </c>
       <c r="M6" t="n">
-        <v>-95424.01064378454</v>
+        <v>-43646.19298570288</v>
       </c>
       <c r="N6" t="n">
-        <v>91366.97596668318</v>
+        <v>91343.75162730056</v>
       </c>
       <c r="O6" t="n">
-        <v>91366.97596668317</v>
+        <v>91343.75162730056</v>
       </c>
       <c r="P6" t="n">
-        <v>91366.97596668314</v>
+        <v>91343.75162730056</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>390.5015624057326</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,7 +27433,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>32.15482301640938</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27543,16 +27543,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>19.73624284201736</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>132.9409922988852</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>253.4649560972574</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>91.86674006413767</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.70286940696559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>110.5076572325422</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.02530924623647</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.750873913633</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>297.3605050393936</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558195</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,22 +35653,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>527.9769957459462</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807368</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>706.631711544173</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,19 +36127,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>527.976995745948</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
